--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fad00d933957fe7/repos/Maze-Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6533249C-9C9E-4567-91B8-3D2CC4FB00BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{6533249C-9C9E-4567-91B8-3D2CC4FB00BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C01312CC-8D4A-4C3B-915D-12A72A50FEAA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E379F87-1CA3-4BEF-B613-B4D4D00AA48F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E379F87-1CA3-4BEF-B613-B4D4D00AA48F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>DFS</t>
   </si>
@@ -44,9 +44,6 @@
     <t>BFS</t>
   </si>
   <si>
-    <t>A*</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>BEST</t>
+  </si>
+  <si>
+    <t>HSv1</t>
+  </si>
+  <si>
+    <t>HSv2</t>
   </si>
 </sst>
 </file>
@@ -117,12 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,22 +445,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C9D22-53FC-4EEA-B033-0C4716303903}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -461,36 +469,45 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>3.5E-4</v>
@@ -501,32 +518,41 @@
       <c r="D2" s="1">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1">
+        <v>5.1000000000000004E-4</v>
+      </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="1">
+      <c r="G2" s="2"/>
+      <c r="H2" s="1">
         <v>46</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>86</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>31</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1">
-        <v>27</v>
-      </c>
+      <c r="K2" s="1">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="1">
         <v>27</v>
       </c>
+      <c r="O2" s="1">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>5.2900000000000004E-3</v>
@@ -537,32 +563,41 @@
       <c r="D3" s="1">
         <v>9.5600000000000008E-3</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1">
+        <v>1.5820000000000001E-2</v>
+      </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="1">
+      <c r="G3" s="2"/>
+      <c r="H3" s="1">
         <v>2499</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>143514</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>639</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1">
-        <v>339</v>
-      </c>
-      <c r="M3" s="1">
-        <v>321</v>
-      </c>
+      <c r="K3" s="1">
+        <v>540</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="1">
         <v>339</v>
       </c>
+      <c r="O3" s="1">
+        <v>321</v>
+      </c>
+      <c r="P3" s="1">
+        <v>339</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>321</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>4.9669999999999999E-2</v>
@@ -573,32 +608,41 @@
       <c r="D4" s="1">
         <v>8.9389999999999997E-2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1">
+        <v>0.43243999999999999</v>
+      </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="1">
+      <c r="G4" s="2"/>
+      <c r="H4" s="1">
         <v>10311</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>162509</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>9670</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1">
-        <v>1092</v>
-      </c>
-      <c r="M4" s="1">
-        <v>974</v>
-      </c>
+      <c r="K4" s="1">
+        <v>10338</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="1">
         <v>1092</v>
       </c>
+      <c r="O4" s="1">
+        <v>974</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1092</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1092</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>0.29635</v>
@@ -609,38 +653,47 @@
       <c r="D5" s="1">
         <v>0.47488999999999998</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1">
+        <v>59.366379999999999</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="1">
+      <c r="G5" s="2"/>
+      <c r="H5" s="1">
         <v>113365</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1603843</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>45049</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1">
-        <v>3737</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3691</v>
-      </c>
+      <c r="K5" s="1">
+        <v>299741</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="1">
         <v>3737</v>
       </c>
+      <c r="O5" s="1">
+        <v>3691</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3737</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3737</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
